--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4190222530767521</v>
+        <v>0.4187560232757783</v>
       </c>
       <c r="C2">
-        <v>0.5867371832995761</v>
+        <v>0.5852816327940494</v>
       </c>
       <c r="D2">
-        <v>0.6778506386823564</v>
+        <v>0.6767035828922799</v>
       </c>
       <c r="E2">
-        <v>0.7426472361205931</v>
+        <v>0.740830947129459</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4438231051522661</v>
+        <v>0.4435718024875882</v>
       </c>
       <c r="C3">
-        <v>0.6146368189802028</v>
+        <v>0.6139259745853569</v>
       </c>
       <c r="D3">
-        <v>0.6994147491102443</v>
+        <v>0.6980272502158601</v>
       </c>
       <c r="E3">
-        <v>0.7569764397548002</v>
+        <v>0.7557067841118835</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.3748379235421312</v>
+        <v>0.3750959194988736</v>
       </c>
       <c r="C4">
-        <v>0.5322764711075562</v>
+        <v>0.5313749586002714</v>
       </c>
       <c r="D4">
-        <v>0.6257848453728361</v>
+        <v>0.6244327983843749</v>
       </c>
       <c r="E4">
-        <v>0.6969519603218947</v>
+        <v>0.695716271214237</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4794230326388673</v>
+        <v>0.479423323321474</v>
       </c>
       <c r="C5">
-        <v>0.6573848689675599</v>
+        <v>0.6562369809696084</v>
       </c>
       <c r="D5">
-        <v>0.7260768023917057</v>
+        <v>0.7258354903946782</v>
       </c>
       <c r="E5">
-        <v>0.778108540458743</v>
+        <v>0.7775079597791049</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4702994845470164</v>
+        <v>0.4703025743668272</v>
       </c>
       <c r="C6">
-        <v>0.6464124645109074</v>
+        <v>0.6451873364608633</v>
       </c>
       <c r="D6">
-        <v>0.716303398318879</v>
+        <v>0.7154820880022621</v>
       </c>
       <c r="E6">
-        <v>0.7702180336424356</v>
+        <v>0.7695806858902364</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4934469514138685</v>
+        <v>0.4933860710767114</v>
       </c>
       <c r="C7">
-        <v>0.6722134438460802</v>
+        <v>0.6714093701379333</v>
       </c>
       <c r="D7">
-        <v>0.7463573843753574</v>
+        <v>0.7460343174914137</v>
       </c>
       <c r="E7">
-        <v>0.7874260198765315</v>
+        <v>0.7866323612145677</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.429087980960973</v>
+        <v>0.4291178983441817</v>
       </c>
       <c r="C8">
-        <v>0.5997771752312723</v>
+        <v>0.5986335783223746</v>
       </c>
       <c r="D8">
-        <v>0.6875028180602804</v>
+        <v>0.686666898898007</v>
       </c>
       <c r="E8">
-        <v>0.7326105353653269</v>
+        <v>0.7321063414733795</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4971233201947855</v>
+        <v>0.4972499334998906</v>
       </c>
       <c r="C9">
-        <v>0.6788881243972418</v>
+        <v>0.6780818500958263</v>
       </c>
       <c r="D9">
-        <v>0.7534733983185975</v>
+        <v>0.7531255498779952</v>
       </c>
       <c r="E9">
-        <v>0.7946235719816721</v>
+        <v>0.793596799859918</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.511133102358127</v>
+        <v>0.5111134471564462</v>
       </c>
       <c r="C10">
-        <v>0.6876670877272409</v>
+        <v>0.6863841418024282</v>
       </c>
       <c r="D10">
-        <v>0.7553777551031308</v>
+        <v>0.7535477510794063</v>
       </c>
       <c r="E10">
-        <v>0.7857495778764459</v>
+        <v>0.7849380575792405</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.50632376375632</v>
+        <v>0.5063591113775412</v>
       </c>
       <c r="C11">
-        <v>0.6810571143280513</v>
+        <v>0.6794344659981938</v>
       </c>
       <c r="D11">
-        <v>0.7457774463208716</v>
+        <v>0.7456990317317909</v>
       </c>
       <c r="E11">
-        <v>0.7785635348463784</v>
+        <v>0.7772108670126719</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.473183479149469</v>
+        <v>0.4729543549636881</v>
       </c>
       <c r="C12">
-        <v>0.6164974721034235</v>
+        <v>0.6156714985252651</v>
       </c>
       <c r="D12">
-        <v>0.6557938154063884</v>
+        <v>0.6540875005989942</v>
       </c>
       <c r="E12">
-        <v>0.6720624676783191</v>
+        <v>0.6700888040979659</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5089716261645763</v>
+        <v>0.508822791869401</v>
       </c>
       <c r="C13">
-        <v>0.6835113465677123</v>
+        <v>0.6825026344982311</v>
       </c>
       <c r="D13">
-        <v>0.7498897852402203</v>
+        <v>0.7481255078652088</v>
       </c>
       <c r="E13">
-        <v>0.7801678810071008</v>
+        <v>0.7789775295704988</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4187560232757783</v>
+        <v>0.4238064353770303</v>
       </c>
       <c r="C2">
-        <v>0.5852816327940494</v>
+        <v>0.5914781857011085</v>
       </c>
       <c r="D2">
-        <v>0.6767035828922799</v>
+        <v>0.6827356175898305</v>
       </c>
       <c r="E2">
-        <v>0.740830947129459</v>
+        <v>0.7470683357879488</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4435718024875882</v>
+        <v>0.4491482029126825</v>
       </c>
       <c r="C3">
-        <v>0.6139259745853569</v>
+        <v>0.620716112768283</v>
       </c>
       <c r="D3">
-        <v>0.6980272502158601</v>
+        <v>0.7044409774657061</v>
       </c>
       <c r="E3">
-        <v>0.7557067841118835</v>
+        <v>0.7622186643604321</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.3750959194988736</v>
+        <v>0.3792809828816487</v>
       </c>
       <c r="C4">
-        <v>0.5313749586002714</v>
+        <v>0.5365522613848597</v>
       </c>
       <c r="D4">
-        <v>0.6244327983843749</v>
+        <v>0.6296424307716176</v>
       </c>
       <c r="E4">
-        <v>0.695716271214237</v>
+        <v>0.7012780821354155</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.479423323321474</v>
+        <v>0.4857654653692099</v>
       </c>
       <c r="C5">
-        <v>0.6562369809696084</v>
+        <v>0.6639177403196133</v>
       </c>
       <c r="D5">
-        <v>0.7258354903946782</v>
+        <v>0.7328281215101273</v>
       </c>
       <c r="E5">
-        <v>0.7775079597791049</v>
+        <v>0.7844444256025577</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4703025743668272</v>
+        <v>0.4764492964914863</v>
       </c>
       <c r="C6">
-        <v>0.6451873364608633</v>
+        <v>0.6526352638223126</v>
       </c>
       <c r="D6">
-        <v>0.7154820880022621</v>
+        <v>0.7222865935179038</v>
       </c>
       <c r="E6">
-        <v>0.7695806858902364</v>
+        <v>0.7763724083021228</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4933860710767114</v>
+        <v>0.5000459747052058</v>
       </c>
       <c r="C7">
-        <v>0.6714093701379333</v>
+        <v>0.6794437767110588</v>
       </c>
       <c r="D7">
-        <v>0.7460343174914137</v>
+        <v>0.7533715401581433</v>
       </c>
       <c r="E7">
-        <v>0.7866323612145677</v>
+        <v>0.7937910582919011</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4291178983441817</v>
+        <v>0.4343970284190022</v>
       </c>
       <c r="C8">
-        <v>0.5986335783223746</v>
+        <v>0.6051242423863379</v>
       </c>
       <c r="D8">
-        <v>0.686666898898007</v>
+        <v>0.6928378562941038</v>
       </c>
       <c r="E8">
-        <v>0.7321063414733795</v>
+        <v>0.7382069388759523</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4972499334998906</v>
+        <v>0.503969351370773</v>
       </c>
       <c r="C9">
-        <v>0.6780818500958263</v>
+        <v>0.6862152739235847</v>
       </c>
       <c r="D9">
-        <v>0.7531255498779952</v>
+        <v>0.7605472385025487</v>
       </c>
       <c r="E9">
-        <v>0.793596799859918</v>
+        <v>0.8008314410081749</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.5111134471564462</v>
+        <v>0.5183759225260688</v>
       </c>
       <c r="C10">
-        <v>0.6863841418024282</v>
+        <v>0.6951162783554444</v>
       </c>
       <c r="D10">
-        <v>0.7535477510794063</v>
+        <v>0.7614022543224178</v>
       </c>
       <c r="E10">
-        <v>0.7849380575792405</v>
+        <v>0.7924859041778979</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5063591113775412</v>
+        <v>0.5135506171930706</v>
       </c>
       <c r="C11">
-        <v>0.6794344659981938</v>
+        <v>0.6880779658990894</v>
       </c>
       <c r="D11">
-        <v>0.7456990317317909</v>
+        <v>0.7534768782313206</v>
       </c>
       <c r="E11">
-        <v>0.7772108670126719</v>
+        <v>0.784691742817359</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4729543549636881</v>
+        <v>0.4800854062337293</v>
       </c>
       <c r="C12">
-        <v>0.6156714985252651</v>
+        <v>0.6241101731037968</v>
       </c>
       <c r="D12">
-        <v>0.6540875005989942</v>
+        <v>0.6614578653373322</v>
       </c>
       <c r="E12">
-        <v>0.6700888040979659</v>
+        <v>0.6770459255562024</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.508822791869401</v>
+        <v>0.5160629930030343</v>
       </c>
       <c r="C13">
-        <v>0.6825026344982311</v>
+        <v>0.6912035447731096</v>
       </c>
       <c r="D13">
-        <v>0.7481255078652088</v>
+        <v>0.7559454293592841</v>
       </c>
       <c r="E13">
-        <v>0.7789775295704988</v>
+        <v>0.7864898091764774</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV_Fiets.xlsx
@@ -391,7 +391,7 @@
         <v>0.4238064353770303</v>
       </c>
       <c r="C2">
-        <v>0.5914781857011085</v>
+        <v>0.5914781857011084</v>
       </c>
       <c r="D2">
         <v>0.6827356175898305</v>
@@ -442,7 +442,7 @@
         <v>0.4857654653692099</v>
       </c>
       <c r="C5">
-        <v>0.6639177403196133</v>
+        <v>0.6639177403196131</v>
       </c>
       <c r="D5">
         <v>0.7328281215101273</v>
@@ -459,7 +459,7 @@
         <v>0.4764492964914863</v>
       </c>
       <c r="C6">
-        <v>0.6526352638223126</v>
+        <v>0.6526352638223125</v>
       </c>
       <c r="D6">
         <v>0.7222865935179038</v>
@@ -476,7 +476,7 @@
         <v>0.5000459747052058</v>
       </c>
       <c r="C7">
-        <v>0.6794437767110588</v>
+        <v>0.6794437767110587</v>
       </c>
       <c r="D7">
         <v>0.7533715401581433</v>
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4343970284190022</v>
+        <v>0.4343970284190021</v>
       </c>
       <c r="C8">
         <v>0.6051242423863379</v>
